--- a/Excel/Mob资源表.xlsx
+++ b/Excel/Mob资源表.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>int</t>
   </si>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,12 @@
   <si>
     <t>ddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_1</t>
+  </si>
+  <si>
+    <t>Prefab_Race_1</t>
   </si>
 </sst>
 </file>
@@ -525,10 +527,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -609,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -663,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -677,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -711,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Mob资源表.xlsx
+++ b/Excel/Mob资源表.xlsx
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +181,9 @@
   </si>
   <si>
     <t>Prefab_Race_1</t>
+  </si>
+  <si>
+    <t>Mob_2</t>
   </si>
 </sst>
 </file>
@@ -527,7 +526,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -631,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -651,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -668,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -682,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -716,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
